--- a/Employee_Reports29/Manuel Jr. Esplago Feniza Q0279.xlsx
+++ b/Employee_Reports29/Manuel Jr. Esplago Feniza Q0279.xlsx
@@ -18,13 +18,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
     </font>
     <font>
       <b val="1"/>
@@ -68,7 +72,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -439,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +454,7 @@
     <col width="4" customWidth="1" min="1" max="1"/>
     <col width="55" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
@@ -559,11 +563,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -608,11 +612,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -657,11 +661,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -677,7 +681,7 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Electronic Hydraulic Press (AMH Trainings)</t>
+          <t>Bin Transport System (AMH Trainings)</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -687,7 +691,7 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>LSME-AMH-M-011</t>
+          <t>LSME-AMH-M-013</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -697,20 +701,20 @@
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>26-Jul-2025</t>
+          <t>23-Jan-2025</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>26-Jul-2027</t>
+          <t>23-Jan-2027</t>
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>677</v>
+        <v>492</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -726,38 +730,40 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>LOTO (SOPs)</t>
+          <t>Electronic Hydraulic Press (AMH Trainings)</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>ELECTRICAL SAFETY</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v/>
+          <t>AMH</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>LSME-AMH-M-011</t>
+        </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>SOP</t>
+          <t>EQUIPMENT MANUAL</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>12-Dec-2024</t>
+          <t>26-Jul-2025</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>12-Dec-2025</t>
+          <t>26-Jul-2027</t>
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>86</v>
+        <v>676</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>16-Sep-2025</t>
+          <t>17-Sep-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -773,36 +779,85 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
+          <t>LOTO (SOPs)</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>ELECTRICAL SAFETY</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>LSME-OHS-SOP-021</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>12-Dec-2024</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>12-Dec-2025</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>85</v>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>17-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
           <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr"/>
-      <c r="D8" s="3" t="inlineStr"/>
-      <c r="E8" s="3" t="inlineStr"/>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr"/>
+      <c r="D9" s="3" t="inlineStr"/>
+      <c r="E9" s="3" t="inlineStr"/>
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>18-Mar-2025</t>
         </is>
       </c>
-      <c r="G8" s="3" t="inlineStr">
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t>18-Mar-2026</t>
         </is>
       </c>
-      <c r="H8" s="3" t="n">
-        <v>182</v>
-      </c>
-      <c r="I8" s="3" t="inlineStr">
-        <is>
-          <t>16-Sep-2025</t>
-        </is>
-      </c>
-      <c r="J8" s="3" t="inlineStr">
+      <c r="H9" s="3" t="n">
+        <v>181</v>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>17-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
         <is>
           <t>VALID</t>
         </is>
       </c>
-      <c r="K8" s="3" t="inlineStr"/>
+      <c r="K9" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
